--- a/xlsx/Q3.xlsx
+++ b/xlsx/Q3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyukinakata/インスタ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyukinakata/git_repo/ds-education-materials/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10644617-F552-EB46-9FF5-3E6ADC86ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178A7A5-66D4-B74E-9A1E-C598F6B0B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,17 +30,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,7 +66,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -373,16 +373,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="40" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1" max="40" width="2.6640625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" ht="16" customHeight="1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -504,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="16" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -626,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="16" customHeight="1">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -748,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="16" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -870,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="16" customHeight="1">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -992,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="16" customHeight="1">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="16" customHeight="1">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="16" customHeight="1">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="16" customHeight="1">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="16" customHeight="1">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="16" customHeight="1">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="16" customHeight="1">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="16" customHeight="1">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="16" customHeight="1">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="16" customHeight="1">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="16" customHeight="1">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" ht="16" customHeight="1">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" ht="16" customHeight="1">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" ht="16" customHeight="1">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" ht="16" customHeight="1">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" ht="16" customHeight="1">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" ht="16" customHeight="1">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" ht="16" customHeight="1">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" ht="16" customHeight="1">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" ht="16" customHeight="1">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" ht="16" customHeight="1">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" ht="16" customHeight="1">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" ht="16" customHeight="1">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:40" ht="16" customHeight="1">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" ht="16" customHeight="1">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:40" ht="16" customHeight="1">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:40" ht="16" customHeight="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" ht="16" customHeight="1">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:40" ht="16" customHeight="1">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" ht="16" customHeight="1">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" ht="16" customHeight="1">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" ht="16" customHeight="1">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" ht="16" customHeight="1">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" ht="16" customHeight="1">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" ht="16" customHeight="1">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -5263,7 +5264,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>